--- a/models/14sectors_cat/parameters.xlsx
+++ b/models/14sectors_cat/parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="afforestation" localSheetId="2">Europe!$C$14:$X$14</definedName>
     <definedName name="afforestation" localSheetId="1">World!$C$19:$X$19</definedName>
     <definedName name="average_solar_I" localSheetId="2">Europe!$C$28</definedName>
-    <definedName name="co2_luc" localSheetId="1">World!$C$16</definedName>
+    <definedName name="co2_luc" localSheetId="1">World!$C$16:$I$16</definedName>
     <definedName name="cumulative_emissions_to_1995" localSheetId="3">Catalonia!#REF!</definedName>
     <definedName name="cumulative_emissions_to_1995" localSheetId="2">Europe!$C$16</definedName>
     <definedName name="cumulative_emissions_to_1995" localSheetId="1">World!$C$21</definedName>
@@ -90,6 +90,7 @@
     <definedName name="urban_surface_2008" localSheetId="3">Catalonia!#REF!</definedName>
     <definedName name="urban_surface_2008" localSheetId="2">Europe!$C$10</definedName>
     <definedName name="urban_surface_2008" localSheetId="1">World!$C$10</definedName>
+    <definedName name="years_co2_luc" localSheetId="1">World!$C$15:$I$15</definedName>
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
@@ -917,7 +918,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Accessible runoff UN (2003)</t>
         </r>
@@ -1167,7 +1168,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Accessible runoff UN (2003)</t>
         </r>
@@ -1232,7 +1233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t>Jobs</t>
   </si>
@@ -1424,9 +1425,6 @@
   </si>
   <si>
     <t>GtCO2</t>
-  </si>
-  <si>
-    <t>this is assummed to be constant during the whole simulation period</t>
   </si>
   <si>
     <t>Afforestation program</t>
@@ -1574,7 +1572,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1783,30 +1781,6 @@
   </cellStyleXfs>
   <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1902,6 +1876,30 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2278,458 +2276,458 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="str">
+      <c r="D5" s="1" t="str">
         <f>+C5</f>
         <v>job year/MW</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="3">
         <v>2.6</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="4">
         <v>10.9</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="4">
         <v>0.2</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="5">
         <v>1.9</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="4">
         <v>0.4</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="4">
         <v>1.5</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="4">
         <v>0.6</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="5">
         <v>1.25</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="4">
         <v>7.9</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="4">
         <v>0.3</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="5">
         <v>1.25</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="4">
         <v>23.6</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="4">
         <v>0.2</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="5">
         <v>1.5</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="4">
         <v>19.7</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="4">
         <v>0.7</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="5">
         <v>1.7</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="4">
         <v>0.6</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="16"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="4">
         <v>8.4</v>
       </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="19"/>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="10">
         <v>1.9</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="4">
         <v>6.9</v>
       </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="19"/>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="13">
         <v>1</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="4">
         <v>1.5</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="C21" s="4">
+      <c r="C21" s="63">
         <v>740231.85916702403</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="63"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="17">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="17">
         <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="5">
         <v>165.2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="5">
         <v>103.3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="5">
         <v>94.6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="5">
         <v>56.1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="5">
         <v>73.3</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="18">
         <v>56.1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="5">
         <v>91.4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="5">
         <v>146.1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="3">
         <v>0.78</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="19">
         <v>2.48</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="20">
         <v>9.4E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="20">
         <v>9.4E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="5">
         <v>9.4E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="23">
         <v>9.4E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="32"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="24"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="5">
         <v>2015</v>
       </c>
     </row>
@@ -2756,8 +2754,8 @@
   </sheetPr>
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -2768,615 +2766,657 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="C1" s="13">
+      <c r="C1" s="5">
         <v>1995</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="5">
         <v>1996</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="5">
         <v>1997</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="5">
         <v>1998</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="5">
         <v>1999</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="5">
         <v>2000</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="5">
         <v>2001</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="5">
         <v>2002</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="5">
         <v>2003</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="5">
         <v>2004</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="5">
         <v>2005</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="5">
         <v>2006</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="5">
         <v>2007</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="5">
         <v>2008</v>
       </c>
-      <c r="Q1" s="13">
+      <c r="Q1" s="5">
         <v>2009</v>
       </c>
-      <c r="R1" s="13">
+      <c r="R1" s="5">
         <v>2010</v>
       </c>
-      <c r="S1" s="13">
+      <c r="S1" s="5">
         <v>2011</v>
       </c>
-      <c r="T1" s="13">
+      <c r="T1" s="5">
         <v>2012</v>
       </c>
-      <c r="U1" s="13">
+      <c r="U1" s="5">
         <v>2013</v>
       </c>
-      <c r="V1" s="13">
+      <c r="V1" s="5">
         <v>2014</v>
       </c>
-      <c r="W1" s="13">
+      <c r="W1" s="5">
         <v>2015</v>
       </c>
-      <c r="X1" s="13">
+      <c r="X1" s="5">
         <v>2016</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="28">
         <v>5709757338</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="28">
         <v>5792568347</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="28">
         <v>5875398158</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="28">
         <v>5957237460</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="28">
         <v>6038067278</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="28">
         <v>6118075293</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="28">
         <v>6197638117</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="28">
         <v>6276824417.8828697</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="28">
         <v>6356259573.8989296</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="28">
         <v>6436346997.9913702</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="28">
         <v>6517020798.2439699</v>
       </c>
-      <c r="N2" s="36">
+      <c r="N2" s="28">
         <v>6598421257.4849901</v>
       </c>
-      <c r="O2" s="36">
+      <c r="O2" s="28">
         <v>6680423046.9909296</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="28">
         <v>6763745673.2955303</v>
       </c>
-      <c r="Q2" s="36">
+      <c r="Q2" s="28">
         <v>6847214549.1101999</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="28">
         <v>6930656699.3622303</v>
       </c>
-      <c r="S2" s="36">
+      <c r="S2" s="28">
         <v>7012843635.3578196</v>
       </c>
-      <c r="T2" s="37">
+      <c r="T2" s="29">
         <v>7097400665.0772305</v>
       </c>
-      <c r="U2" s="37">
+      <c r="U2" s="29">
         <v>7182860114.6100798</v>
       </c>
-      <c r="V2" s="37">
+      <c r="V2" s="29">
         <v>7268986175.7391596</v>
       </c>
-      <c r="W2" s="37">
+      <c r="W2" s="29">
         <v>7355220411.6820297</v>
       </c>
-      <c r="X2" s="13">
+      <c r="X2" s="5">
         <v>7442135578</v>
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="38">
+      <c r="B3" s="8"/>
+      <c r="C3" s="30">
         <v>2010</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="30">
         <f>10+C3</f>
         <v>2020</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="30">
         <f>10+D3</f>
         <v>2030</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="30">
         <f>10+E3</f>
         <v>2040</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="30">
         <f>10+F3</f>
         <v>2050</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="30">
         <f>10+G3</f>
         <v>2060</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="34">
         <v>6867.39</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="34">
         <v>7611.25</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="34">
         <v>8261.99</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="34">
         <v>8787.1200000000008</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="34">
         <v>9169.11</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="34">
         <v>9384.7000000000007</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="5">
         <v>2500000000</v>
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="5">
         <v>1526</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="5">
         <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="5">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="23">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" ref="D15" si="0">C15+5</f>
+        <v>2025</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" ref="E15" si="1">D15+5</f>
+        <v>2030</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15" si="2">E15+5</f>
+        <v>2035</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" ref="G15" si="3">F15+5</f>
+        <v>2040</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" ref="H15" si="4">G15+5</f>
+        <v>2045</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" ref="I15" si="5">H15+5</f>
+        <v>2050</v>
+      </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="D16" s="49" t="s">
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1.5</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="42" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="50" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="5">
+        <v>1980</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2020</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18:X18" si="6">D18+5</f>
+        <v>2025</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="6"/>
+        <v>2030</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="6"/>
+        <v>2035</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="6"/>
+        <v>2040</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="6"/>
+        <v>2045</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="6"/>
+        <v>2050</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="6"/>
+        <v>2055</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="6"/>
+        <v>2060</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="6"/>
+        <v>2065</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="6"/>
+        <v>2070</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="6"/>
+        <v>2075</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="6"/>
+        <v>2085</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" si="6"/>
+        <v>2090</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" si="6"/>
+        <v>2095</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="6"/>
+        <v>2100</v>
+      </c>
+      <c r="U18" s="5">
+        <f t="shared" si="6"/>
+        <v>2105</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" si="6"/>
+        <v>2110</v>
+      </c>
+      <c r="W18" s="5">
+        <f t="shared" si="6"/>
+        <v>2115</v>
+      </c>
+      <c r="X18" s="5">
+        <f t="shared" si="6"/>
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="13">
-        <v>1980</v>
-      </c>
-      <c r="D18" s="13">
-        <v>2020</v>
-      </c>
-      <c r="E18" s="13">
-        <f t="shared" ref="E18:X18" si="0">D18+5</f>
-        <v>2025</v>
-      </c>
-      <c r="F18" s="13">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="G18" s="13">
-        <f t="shared" si="0"/>
-        <v>2035</v>
-      </c>
-      <c r="H18" s="13">
-        <f t="shared" si="0"/>
-        <v>2040</v>
-      </c>
-      <c r="I18" s="13">
-        <f t="shared" si="0"/>
-        <v>2045</v>
-      </c>
-      <c r="J18" s="13">
-        <f t="shared" si="0"/>
-        <v>2050</v>
-      </c>
-      <c r="K18" s="13">
-        <f t="shared" si="0"/>
-        <v>2055</v>
-      </c>
-      <c r="L18" s="13">
-        <f t="shared" si="0"/>
-        <v>2060</v>
-      </c>
-      <c r="M18" s="13">
-        <f t="shared" si="0"/>
-        <v>2065</v>
-      </c>
-      <c r="N18" s="13">
-        <f t="shared" si="0"/>
-        <v>2070</v>
-      </c>
-      <c r="O18" s="13">
-        <f t="shared" si="0"/>
-        <v>2075</v>
-      </c>
-      <c r="P18" s="13">
-        <f t="shared" si="0"/>
-        <v>2080</v>
-      </c>
-      <c r="Q18" s="13">
-        <f t="shared" si="0"/>
-        <v>2085</v>
-      </c>
-      <c r="R18" s="13">
-        <f t="shared" si="0"/>
-        <v>2090</v>
-      </c>
-      <c r="S18" s="13">
-        <f t="shared" si="0"/>
-        <v>2095</v>
-      </c>
-      <c r="T18" s="13">
-        <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="U18" s="13">
-        <f t="shared" si="0"/>
-        <v>2105</v>
-      </c>
-      <c r="V18" s="13">
-        <f t="shared" si="0"/>
-        <v>2110</v>
-      </c>
-      <c r="W18" s="13">
-        <f t="shared" si="0"/>
-        <v>2115</v>
-      </c>
-      <c r="X18" s="13">
-        <f t="shared" si="0"/>
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>138.27270413283301</v>
+      </c>
+      <c r="F19" s="5">
+        <v>299.56044274475403</v>
+      </c>
+      <c r="G19" s="5">
+        <v>452.93534236308199</v>
+      </c>
+      <c r="H19" s="5">
+        <v>597.87985625211195</v>
+      </c>
+      <c r="I19" s="5">
+        <v>733.87643769476597</v>
+      </c>
+      <c r="J19" s="5">
+        <v>860.40753996092803</v>
+      </c>
+      <c r="K19" s="5">
+        <v>976.95561632420902</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1083.0031200675301</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1178.0325044589099</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1261.5262227738301</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1332.9667282933401</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1391.83647428174</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>1437.6179140219499</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1469.79350078944</v>
+      </c>
+      <c r="S19" s="5">
+        <v>1487.8456878541001</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1491.25692849699</v>
+      </c>
+      <c r="U19" s="5">
+        <v>1479.5096759861301</v>
+      </c>
+      <c r="V19" s="5">
+        <v>1452.0863836025801</v>
+      </c>
+      <c r="W19" s="5">
+        <v>1408.46950461809</v>
+      </c>
+      <c r="X19" s="5">
+        <v>1348.14149231184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="13">
-        <v>0</v>
-      </c>
-      <c r="D19" s="13">
-        <v>0</v>
-      </c>
-      <c r="E19" s="13">
-        <v>138.27270413283301</v>
-      </c>
-      <c r="F19" s="13">
-        <v>299.56044274475403</v>
-      </c>
-      <c r="G19" s="13">
-        <v>452.93534236308199</v>
-      </c>
-      <c r="H19" s="13">
-        <v>597.87985625211195</v>
-      </c>
-      <c r="I19" s="13">
-        <v>733.87643769476597</v>
-      </c>
-      <c r="J19" s="13">
-        <v>860.40753996092803</v>
-      </c>
-      <c r="K19" s="13">
-        <v>976.95561632420902</v>
-      </c>
-      <c r="L19" s="13">
-        <v>1083.0031200675301</v>
-      </c>
-      <c r="M19" s="13">
-        <v>1178.0325044589099</v>
-      </c>
-      <c r="N19" s="13">
-        <v>1261.5262227738301</v>
-      </c>
-      <c r="O19" s="13">
-        <v>1332.9667282933401</v>
-      </c>
-      <c r="P19" s="13">
-        <v>1391.83647428174</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>1437.6179140219499</v>
-      </c>
-      <c r="R19" s="13">
-        <v>1469.79350078944</v>
-      </c>
-      <c r="S19" s="13">
-        <v>1487.8456878541001</v>
-      </c>
-      <c r="T19" s="13">
-        <v>1491.25692849699</v>
-      </c>
-      <c r="U19" s="13">
-        <v>1479.5096759861301</v>
-      </c>
-      <c r="V19" s="13">
-        <v>1452.0863836025801</v>
-      </c>
-      <c r="W19" s="13">
-        <v>1408.46950461809</v>
-      </c>
-      <c r="X19" s="13">
-        <v>1348.14149231184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="34" t="s">
+      <c r="B21" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="C21" s="33">
+        <v>378.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="41">
-        <v>378.66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="14" t="s">
+      <c r="B23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="A26" s="14" t="s">
+      <c r="B26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="5">
+        <v>43659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="13">
-        <v>43659</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="A27" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="13">
+      <c r="B27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="5">
         <v>7091</v>
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="24"/>
+      <c r="A28" s="16"/>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
         <v>75</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="59" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
-      <c r="A30" s="8" t="s">
+      <c r="B30" s="59"/>
+      <c r="C30" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="65"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="A31" s="14" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="53" t="s">
+      <c r="D31" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="53" t="s">
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
-      <c r="A32" s="14" t="s">
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5">
+        <v>750</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="13">
-        <v>750</v>
-      </c>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="14" t="s">
+      <c r="C33" s="5">
+        <v>50</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="36" spans="1:4" ht="30">
+      <c r="A36" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="13">
-        <v>50</v>
-      </c>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="36" spans="1:4" ht="30">
-      <c r="A36" s="54" t="s">
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="41" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="49" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="41" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="49" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="41" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="49" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3412,481 +3452,481 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="C1" s="13">
+      <c r="C1" s="5">
         <v>1995</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="5">
         <v>1996</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="5">
         <v>1997</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="5">
         <v>1998</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="5">
         <v>1999</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="5">
         <v>2000</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="5">
         <v>2001</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="5">
         <v>2002</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="5">
         <v>2003</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="5">
         <v>2004</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="5">
         <v>2005</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="5">
         <v>2006</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="5">
         <v>2007</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="5">
         <v>2008</v>
       </c>
-      <c r="Q1" s="13">
+      <c r="Q1" s="5">
         <v>2009</v>
       </c>
-      <c r="R1" s="13">
+      <c r="R1" s="5">
         <v>2010</v>
       </c>
-      <c r="S1" s="13">
+      <c r="S1" s="5">
         <v>2011</v>
       </c>
-      <c r="T1" s="13">
+      <c r="T1" s="5">
         <v>2012</v>
       </c>
-      <c r="U1" s="13">
+      <c r="U1" s="5">
         <v>2013</v>
       </c>
-      <c r="V1" s="13">
+      <c r="V1" s="5">
         <v>2014</v>
       </c>
-      <c r="W1" s="13">
+      <c r="W1" s="5">
         <v>2015</v>
       </c>
-      <c r="X1" s="13">
+      <c r="X1" s="5">
         <v>2016</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="48">
         <v>484271345</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="48">
         <v>485000714</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="48">
         <v>485892088</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="48">
         <v>486565874</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="48">
         <v>487539363</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="48">
         <v>488178830</v>
       </c>
-      <c r="I2" s="56">
+      <c r="I2" s="48">
         <v>489155666</v>
       </c>
-      <c r="J2" s="56">
+      <c r="J2" s="48">
         <v>490390251</v>
       </c>
-      <c r="K2" s="56">
+      <c r="K2" s="48">
         <v>492200115</v>
       </c>
-      <c r="L2" s="56">
+      <c r="L2" s="48">
         <v>494162545</v>
       </c>
-      <c r="M2" s="56">
+      <c r="M2" s="48">
         <v>496115011</v>
       </c>
-      <c r="N2" s="56">
+      <c r="N2" s="48">
         <v>497973707</v>
       </c>
-      <c r="O2" s="56">
+      <c r="O2" s="48">
         <v>499916649</v>
       </c>
-      <c r="P2" s="56">
+      <c r="P2" s="48">
         <v>501808478</v>
       </c>
-      <c r="Q2" s="56">
+      <c r="Q2" s="48">
         <v>503317964</v>
       </c>
-      <c r="R2" s="56">
+      <c r="R2" s="48">
         <v>504421131</v>
       </c>
-      <c r="S2" s="56">
+      <c r="S2" s="48">
         <v>504012082</v>
       </c>
-      <c r="T2" s="57">
+      <c r="T2" s="49">
         <v>505104334</v>
       </c>
-      <c r="U2" s="57">
+      <c r="U2" s="49">
         <v>506592457</v>
       </c>
-      <c r="V2" s="57">
+      <c r="V2" s="49">
         <v>508157247</v>
       </c>
-      <c r="W2" s="57">
+      <c r="W2" s="49">
         <v>509703315</v>
       </c>
-      <c r="X2" s="57">
+      <c r="X2" s="49">
         <v>511497415</v>
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="38">
+      <c r="B3" s="8"/>
+      <c r="C3" s="30">
         <v>2010</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="30">
         <f>10+C3</f>
         <v>2020</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="30">
         <f>10+D3</f>
         <v>2030</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="30">
         <f>10+E3</f>
         <v>2040</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="30">
         <f>10+F3</f>
         <v>2050</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="30">
         <f>10+G3</f>
         <v>2060</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="34">
         <v>511.5</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="34">
         <v>519.42439291895403</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="34">
         <v>534.44001325370596</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="34">
         <v>545.22150656972997</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="34">
         <v>551.86696075163104</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="34">
         <v>553.37097498222204</v>
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="13">
+      <c r="A13" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="5">
         <v>1980</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="5">
         <v>2020</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="5">
         <f t="shared" ref="E13:X13" si="0">D13+5</f>
         <v>2025</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
         <v>2045</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="5">
         <f t="shared" si="0"/>
         <v>2050</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="5">
         <f t="shared" si="0"/>
         <v>2055</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="5">
         <f t="shared" si="0"/>
         <v>2060</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="5">
         <f t="shared" si="0"/>
         <v>2065</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="5">
         <f t="shared" si="0"/>
         <v>2070</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="5">
         <f t="shared" si="0"/>
         <v>2075</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="5">
         <f t="shared" si="0"/>
         <v>2080</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="5">
         <f t="shared" si="0"/>
         <v>2085</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="5">
         <f t="shared" si="0"/>
         <v>2090</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="5">
         <f t="shared" si="0"/>
         <v>2095</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="5">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="5">
         <f t="shared" si="0"/>
         <v>2105</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V13" s="5">
         <f t="shared" si="0"/>
         <v>2110</v>
       </c>
-      <c r="W13" s="13">
+      <c r="W13" s="5">
         <f t="shared" si="0"/>
         <v>2115</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="5">
         <f t="shared" si="0"/>
         <v>2120</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
-        <v>0</v>
-      </c>
-      <c r="L14" s="13">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>0</v>
-      </c>
-      <c r="R14" s="13">
-        <v>0</v>
-      </c>
-      <c r="S14" s="13">
-        <v>0</v>
-      </c>
-      <c r="T14" s="13">
-        <v>0</v>
-      </c>
-      <c r="U14" s="13">
-        <v>0</v>
-      </c>
-      <c r="V14" s="13">
-        <v>0</v>
-      </c>
-      <c r="W14" s="13">
-        <v>0</v>
-      </c>
-      <c r="X14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="34" t="s">
+      <c r="B16" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="C16" s="54">
+        <v>0</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="62">
-        <v>0</v>
-      </c>
-      <c r="D16" s="49" t="s">
+      <c r="B18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="55">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="55">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="59" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="63">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="63">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="8" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="14" t="s">
+      <c r="B28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="63">
+      <c r="C28" s="55">
         <v>135</v>
       </c>
     </row>
@@ -3908,7 +3948,7 @@
   </sheetPr>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -3921,378 +3961,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="C1" s="13">
+      <c r="C1" s="5">
         <v>1995</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="5">
         <v>1996</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="5">
         <v>1997</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="5">
         <v>1998</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="5">
         <v>1999</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="5">
         <v>2000</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="5">
         <v>2001</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="5">
         <v>2002</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="5">
         <v>2003</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="5">
         <v>2004</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="5">
         <v>2005</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="5">
         <v>2006</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="5">
         <v>2007</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="5">
         <v>2008</v>
       </c>
-      <c r="Q1" s="13">
+      <c r="Q1" s="5">
         <v>2009</v>
       </c>
-      <c r="R1" s="13">
+      <c r="R1" s="5">
         <v>2010</v>
       </c>
-      <c r="S1" s="13">
+      <c r="S1" s="5">
         <v>2011</v>
       </c>
-      <c r="T1" s="13">
+      <c r="T1" s="5">
         <v>2012</v>
       </c>
-      <c r="U1" s="13">
+      <c r="U1" s="5">
         <v>2013</v>
       </c>
-      <c r="V1" s="13">
+      <c r="V1" s="5">
         <v>2014</v>
       </c>
-      <c r="W1" s="13">
+      <c r="W1" s="5">
         <v>2015</v>
       </c>
-      <c r="X1" s="13">
+      <c r="X1" s="5">
         <v>2016</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="28">
         <v>6100983</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="28">
         <v>6104729</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="28">
         <v>6110000</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="28">
         <v>6125339</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="28">
         <v>6147717</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="28">
         <v>6174547</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="28">
         <v>6253305</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="28">
         <v>6398166</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="28">
         <v>6558740</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="28">
         <v>6693297</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="28">
         <v>6846692</v>
       </c>
-      <c r="N2" s="36">
+      <c r="N2" s="28">
         <v>6994937</v>
       </c>
-      <c r="O2" s="36">
+      <c r="O2" s="28">
         <v>7146734</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="28">
         <v>7298313</v>
       </c>
-      <c r="Q2" s="36">
+      <c r="Q2" s="28">
         <v>7416605</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="28">
         <v>7462044</v>
       </c>
-      <c r="S2" s="36">
+      <c r="S2" s="28">
         <v>7501853</v>
       </c>
-      <c r="T2" s="37">
+      <c r="T2" s="29">
         <v>7515398</v>
       </c>
-      <c r="U2" s="37">
+      <c r="U2" s="29">
         <v>7478968</v>
       </c>
-      <c r="V2" s="64">
+      <c r="V2" s="56">
         <v>7433894</v>
       </c>
-      <c r="W2" s="37">
+      <c r="W2" s="29">
         <v>7424754</v>
       </c>
-      <c r="X2" s="40">
+      <c r="X2" s="32">
         <v>7448332</v>
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="13">
+      <c r="A9" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="5">
         <v>1980</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="5">
         <v>2020</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="5">
         <f t="shared" ref="E9:X9" si="0">D9+5</f>
         <v>2025</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>2045</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="5">
         <f t="shared" si="0"/>
         <v>2050</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="5">
         <f t="shared" si="0"/>
         <v>2055</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="5">
         <f t="shared" si="0"/>
         <v>2060</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="5">
         <f t="shared" si="0"/>
         <v>2065</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="5">
         <f t="shared" si="0"/>
         <v>2070</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="5">
         <f t="shared" si="0"/>
         <v>2075</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="5">
         <f t="shared" si="0"/>
         <v>2080</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="5">
         <f t="shared" si="0"/>
         <v>2085</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="5">
         <f t="shared" si="0"/>
         <v>2090</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="5">
         <f t="shared" si="0"/>
         <v>2095</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="5">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="5">
         <f t="shared" si="0"/>
         <v>2105</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V9" s="5">
         <f t="shared" si="0"/>
         <v>2110</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9" s="5">
         <f t="shared" si="0"/>
         <v>2115</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X9" s="5">
         <f t="shared" si="0"/>
         <v>2120</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="O10" s="13">
-        <v>0</v>
-      </c>
-      <c r="P10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>0</v>
-      </c>
-      <c r="R10" s="13">
-        <v>0</v>
-      </c>
-      <c r="S10" s="13">
-        <v>0</v>
-      </c>
-      <c r="T10" s="13">
-        <v>0</v>
-      </c>
-      <c r="U10" s="13">
-        <v>0</v>
-      </c>
-      <c r="V10" s="13">
-        <v>0</v>
-      </c>
-      <c r="W10" s="13">
-        <v>0</v>
-      </c>
-      <c r="X10" s="13">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="14" t="s">
+      <c r="B16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="57">
+        <v>2.7869999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="65">
-        <v>2.7869999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="65">
+      <c r="B17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="57">
         <f>C16*0.61</f>
         <v>1.70007</v>
       </c>

--- a/models/14sectors_cat/parameters.xlsx
+++ b/models/14sectors_cat/parameters.xlsx
@@ -15,24 +15,24 @@
   <definedNames>
     <definedName name="accessible_runnoff_water" localSheetId="3">Catalonia!$C$17</definedName>
     <definedName name="accessible_runnoff_water" localSheetId="2">Europe!$C$22</definedName>
-    <definedName name="accessible_runnoff_water" localSheetId="1">World!$C$27</definedName>
+    <definedName name="accessible_runnoff_water" localSheetId="1">World!$C$22</definedName>
     <definedName name="afforestation" localSheetId="3">Catalonia!$C$10:$X$10</definedName>
     <definedName name="afforestation" localSheetId="2">Europe!$C$14:$X$14</definedName>
-    <definedName name="afforestation" localSheetId="1">World!$C$19:$X$19</definedName>
+    <definedName name="afforestation" localSheetId="1">World!#REF!</definedName>
     <definedName name="average_solar_I" localSheetId="2">Europe!$C$28</definedName>
-    <definedName name="co2_luc" localSheetId="1">World!$C$16:$I$16</definedName>
+    <definedName name="co2_luc" localSheetId="1">World!#REF!</definedName>
     <definedName name="cumulative_emissions_to_1995" localSheetId="3">Catalonia!#REF!</definedName>
     <definedName name="cumulative_emissions_to_1995" localSheetId="2">Europe!$C$16</definedName>
-    <definedName name="cumulative_emissions_to_1995" localSheetId="1">World!$C$21</definedName>
+    <definedName name="cumulative_emissions_to_1995" localSheetId="1">World!$C$16</definedName>
     <definedName name="daily_working_hours" localSheetId="3">Catalonia!$C$13</definedName>
     <definedName name="daily_working_hours" localSheetId="2">Europe!$C$18</definedName>
-    <definedName name="daily_working_hours" localSheetId="1">World!$C$23</definedName>
+    <definedName name="daily_working_hours" localSheetId="1">World!$C$18</definedName>
     <definedName name="damage_function_parameter_a" localSheetId="3">Catalonia!#REF!</definedName>
     <definedName name="damage_function_parameter_a" localSheetId="2">Europe!$O$9</definedName>
-    <definedName name="damage_function_parameter_a" localSheetId="1">World!$C$32</definedName>
+    <definedName name="damage_function_parameter_a" localSheetId="1">World!$C$27</definedName>
     <definedName name="damage_function_parameter_b" localSheetId="3">Catalonia!#REF!</definedName>
     <definedName name="damage_function_parameter_b" localSheetId="2">Europe!$O$10</definedName>
-    <definedName name="damage_function_parameter_b" localSheetId="1">World!$C$33</definedName>
+    <definedName name="damage_function_parameter_b" localSheetId="1">World!$C$28</definedName>
     <definedName name="employment_factor_biofuels" localSheetId="0">Global!$C$21</definedName>
     <definedName name="employment_factor_fuel_supply_solids_bioe" localSheetId="0">Global!$E$8</definedName>
     <definedName name="employment_factors_new_res_elec" localSheetId="0">Global!$C$6:$C$13</definedName>
@@ -75,10 +75,10 @@
     <definedName name="ratio_total_vs_direct_jobs_res_heat" localSheetId="0">Global!$B$17:$B$19</definedName>
     <definedName name="renewable_water_resources" localSheetId="3">Catalonia!$C$16</definedName>
     <definedName name="renewable_water_resources" localSheetId="2">Europe!$C$21</definedName>
-    <definedName name="renewable_water_resources" localSheetId="1">World!$C$26</definedName>
+    <definedName name="renewable_water_resources" localSheetId="1">World!$C$21</definedName>
     <definedName name="time_afforestation" localSheetId="3">Catalonia!$C$9:$X$9</definedName>
     <definedName name="time_afforestation" localSheetId="2">Europe!$C$13:$X$13</definedName>
-    <definedName name="time_afforestation" localSheetId="1">World!$C$18:$X$18</definedName>
+    <definedName name="time_afforestation" localSheetId="1">World!#REF!</definedName>
     <definedName name="time_historic_population" localSheetId="3">Catalonia!$C$1:$X$1</definedName>
     <definedName name="time_historic_population" localSheetId="2">Europe!$C$1:$X$1</definedName>
     <definedName name="time_historic_population" localSheetId="1">World!$C$1:$X$1</definedName>
@@ -90,7 +90,7 @@
     <definedName name="urban_surface_2008" localSheetId="3">Catalonia!#REF!</definedName>
     <definedName name="urban_surface_2008" localSheetId="2">Europe!$C$10</definedName>
     <definedName name="urban_surface_2008" localSheetId="1">World!$C$10</definedName>
-    <definedName name="years_co2_luc" localSheetId="1">World!$C$15:$I$15</definedName>
+    <definedName name="years_co2_luc" localSheetId="1">World!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
@@ -820,6 +820,21 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">IdB:  Data from CDIAC and World Resources Institute
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">Iñigo:
 </t>
         </r>
@@ -831,11 +846,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Approximation: cte at 2010 level from 1990 to 2100.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="0">
+          <t xml:space="preserve">Reference: http://unesdoc.unesco.org/images/0018/001819/181993e.pdf </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -854,28 +869,12 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Nilsson &amp; Schopfhauser (1995)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">IdB:  Data from CDIAC and World Resources Institute
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A26" authorId="0">
+          </rPr>
+          <t>Accessible runoff UN (2003)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -896,11 +895,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Reference: http://unesdoc.unesco.org/images/0018/001819/181993e.pdf </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A27" authorId="0">
+          <t>a: cuando el daño equivalente al nivel del ppm es del 50%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -919,12 +918,13 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-          </rPr>
-          <t>Accessible runoff UN (2003)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A32" authorId="0">
+            <charset val="1"/>
+          </rPr>
+          <t>own estimation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -945,61 +945,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>a: cuando el daño equivalente al nivel del ppm es del 50%</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Iñigo:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>own estimation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Iñigo:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
           <t>b: cuanto más pequeño es b más bruscamente se alcanza el 100% de damage</t>
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="C28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1233,7 +1183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Jobs</t>
   </si>
@@ -1416,15 +1366,6 @@
   </si>
   <si>
     <t>TPED acceptable standard living</t>
-  </si>
-  <si>
-    <t>Other GHG emissions</t>
-  </si>
-  <si>
-    <t>Land use change emissions GtCO2</t>
-  </si>
-  <si>
-    <t>GtCO2</t>
   </si>
   <si>
     <t>Afforestation program</t>
@@ -1607,7 +1548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1763,23 +1704,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1893,9 +1823,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2752,10 +2679,10 @@
   <sheetPr>
     <tabColor rgb="FF595959"/>
   </sheetPr>
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -3063,368 +2990,139 @@
       <c r="B14" s="40"/>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" ref="D15" si="0">C15+5</f>
-        <v>2025</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" ref="E15" si="1">D15+5</f>
-        <v>2030</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" ref="F15" si="2">E15+5</f>
-        <v>2035</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" ref="G15" si="3">F15+5</f>
-        <v>2040</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" ref="H15" si="4">G15+5</f>
-        <v>2045</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" ref="I15" si="5">H15+5</f>
-        <v>2050</v>
-      </c>
-    </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="5">
-        <v>3</v>
-      </c>
-      <c r="D16" s="41">
-        <v>2.5</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1.5</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0.5</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="42" t="s">
+      <c r="B16" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="5">
-        <v>1980</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2020</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" ref="E18:X18" si="6">D18+5</f>
-        <v>2025</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="6"/>
-        <v>2030</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="6"/>
-        <v>2035</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="6"/>
-        <v>2040</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="6"/>
-        <v>2045</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="6"/>
-        <v>2050</v>
-      </c>
-      <c r="K18" s="5">
-        <f t="shared" si="6"/>
-        <v>2055</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="6"/>
-        <v>2060</v>
-      </c>
-      <c r="M18" s="5">
-        <f t="shared" si="6"/>
-        <v>2065</v>
-      </c>
-      <c r="N18" s="5">
-        <f t="shared" si="6"/>
-        <v>2070</v>
-      </c>
-      <c r="O18" s="5">
-        <f t="shared" si="6"/>
-        <v>2075</v>
-      </c>
-      <c r="P18" s="5">
-        <f t="shared" si="6"/>
-        <v>2080</v>
-      </c>
-      <c r="Q18" s="5">
-        <f t="shared" si="6"/>
-        <v>2085</v>
-      </c>
-      <c r="R18" s="5">
-        <f t="shared" si="6"/>
-        <v>2090</v>
-      </c>
-      <c r="S18" s="5">
-        <f t="shared" si="6"/>
-        <v>2095</v>
-      </c>
-      <c r="T18" s="5">
-        <f t="shared" si="6"/>
-        <v>2100</v>
-      </c>
-      <c r="U18" s="5">
-        <f t="shared" si="6"/>
-        <v>2105</v>
-      </c>
-      <c r="V18" s="5">
-        <f t="shared" si="6"/>
-        <v>2110</v>
-      </c>
-      <c r="W18" s="5">
-        <f t="shared" si="6"/>
-        <v>2115</v>
-      </c>
-      <c r="X18" s="5">
-        <f t="shared" si="6"/>
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="C16" s="33">
+        <v>378.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>138.27270413283301</v>
-      </c>
-      <c r="F19" s="5">
-        <v>299.56044274475403</v>
-      </c>
-      <c r="G19" s="5">
-        <v>452.93534236308199</v>
-      </c>
-      <c r="H19" s="5">
-        <v>597.87985625211195</v>
-      </c>
-      <c r="I19" s="5">
-        <v>733.87643769476597</v>
-      </c>
-      <c r="J19" s="5">
-        <v>860.40753996092803</v>
-      </c>
-      <c r="K19" s="5">
-        <v>976.95561632420902</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1083.0031200675301</v>
-      </c>
-      <c r="M19" s="5">
-        <v>1178.0325044589099</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1261.5262227738301</v>
-      </c>
-      <c r="O19" s="5">
-        <v>1332.9667282933401</v>
-      </c>
-      <c r="P19" s="5">
-        <v>1391.83647428174</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>1437.6179140219499</v>
-      </c>
-      <c r="R19" s="5">
-        <v>1469.79350078944</v>
-      </c>
-      <c r="S19" s="5">
-        <v>1487.8456878541001</v>
-      </c>
-      <c r="T19" s="5">
-        <v>1491.25692849699</v>
-      </c>
-      <c r="U19" s="5">
-        <v>1479.5096759861301</v>
-      </c>
-      <c r="V19" s="5">
-        <v>1452.0863836025801</v>
-      </c>
-      <c r="W19" s="5">
-        <v>1408.46950461809</v>
-      </c>
-      <c r="X19" s="5">
-        <v>1348.14149231184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="26" t="s">
+      <c r="B18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="C18" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="33">
-        <v>378.66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="6" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="C21" s="5">
+        <v>43659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="16"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="59" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="C25" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="64"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="5">
-        <v>43659</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+        <v>75</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C27" s="5">
-        <v>7091</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="16"/>
-    </row>
-    <row r="29" spans="1:24">
-      <c r="A29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
-      <c r="A30" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="65"/>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="A31" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="45" t="s">
+        <v>750</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5">
+        <v>50</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="30">
+      <c r="A31" s="46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="5">
-        <v>750</v>
-      </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="6" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="5">
-        <v>50</v>
-      </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="36" spans="1:4" ht="30">
-      <c r="A36" s="46" t="s">
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="41" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="41" t="s">
-        <v>86</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
+  <mergeCells count="3">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3694,7 +3392,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="5">
@@ -3786,10 +3484,10 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3860,24 +3558,24 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C16" s="54">
         <v>0</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18" s="44">
         <v>8</v>
@@ -3885,17 +3583,17 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="59" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" s="55">
         <v>1505</v>
@@ -3903,10 +3601,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C22" s="55">
         <v>1130</v>
@@ -3914,17 +3612,17 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="59" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="55">
         <v>135</v>
@@ -4132,7 +3830,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="5">
@@ -4224,10 +3922,10 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -4298,10 +3996,10 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" s="44">
         <v>8</v>
@@ -4309,17 +4007,17 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="59" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" s="57">
         <v>2.7869999999999999</v>
@@ -4327,10 +4025,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" s="57">
         <f>C16*0.61</f>

--- a/models/14sectors_cat/parameters.xlsx
+++ b/models/14sectors_cat/parameters.xlsx
@@ -15,24 +15,24 @@
   <definedNames>
     <definedName name="accessible_runnoff_water" localSheetId="3">Catalonia!$C$17</definedName>
     <definedName name="accessible_runnoff_water" localSheetId="2">Europe!$C$22</definedName>
-    <definedName name="accessible_runnoff_water" localSheetId="1">World!$C$22</definedName>
+    <definedName name="accessible_runnoff_water" localSheetId="1">World!$C$27</definedName>
     <definedName name="afforestation" localSheetId="3">Catalonia!$C$10:$X$10</definedName>
     <definedName name="afforestation" localSheetId="2">Europe!$C$14:$X$14</definedName>
-    <definedName name="afforestation" localSheetId="1">World!#REF!</definedName>
+    <definedName name="afforestation" localSheetId="1">World!$C$19:$X$19</definedName>
     <definedName name="average_solar_I" localSheetId="2">Europe!$C$28</definedName>
-    <definedName name="co2_luc" localSheetId="1">World!#REF!</definedName>
+    <definedName name="co2_luc" localSheetId="1">World!$C$16:$I$16</definedName>
     <definedName name="cumulative_emissions_to_1995" localSheetId="3">Catalonia!#REF!</definedName>
     <definedName name="cumulative_emissions_to_1995" localSheetId="2">Europe!$C$16</definedName>
-    <definedName name="cumulative_emissions_to_1995" localSheetId="1">World!$C$16</definedName>
+    <definedName name="cumulative_emissions_to_1995" localSheetId="1">World!$C$21</definedName>
     <definedName name="daily_working_hours" localSheetId="3">Catalonia!$C$13</definedName>
     <definedName name="daily_working_hours" localSheetId="2">Europe!$C$18</definedName>
-    <definedName name="daily_working_hours" localSheetId="1">World!$C$18</definedName>
+    <definedName name="daily_working_hours" localSheetId="1">World!$C$23</definedName>
     <definedName name="damage_function_parameter_a" localSheetId="3">Catalonia!#REF!</definedName>
     <definedName name="damage_function_parameter_a" localSheetId="2">Europe!$O$9</definedName>
-    <definedName name="damage_function_parameter_a" localSheetId="1">World!$C$27</definedName>
+    <definedName name="damage_function_parameter_a" localSheetId="1">World!$C$32</definedName>
     <definedName name="damage_function_parameter_b" localSheetId="3">Catalonia!#REF!</definedName>
     <definedName name="damage_function_parameter_b" localSheetId="2">Europe!$O$10</definedName>
-    <definedName name="damage_function_parameter_b" localSheetId="1">World!$C$28</definedName>
+    <definedName name="damage_function_parameter_b" localSheetId="1">World!$C$33</definedName>
     <definedName name="employment_factor_biofuels" localSheetId="0">Global!$C$21</definedName>
     <definedName name="employment_factor_fuel_supply_solids_bioe" localSheetId="0">Global!$E$8</definedName>
     <definedName name="employment_factors_new_res_elec" localSheetId="0">Global!$C$6:$C$13</definedName>
@@ -75,10 +75,10 @@
     <definedName name="ratio_total_vs_direct_jobs_res_heat" localSheetId="0">Global!$B$17:$B$19</definedName>
     <definedName name="renewable_water_resources" localSheetId="3">Catalonia!$C$16</definedName>
     <definedName name="renewable_water_resources" localSheetId="2">Europe!$C$21</definedName>
-    <definedName name="renewable_water_resources" localSheetId="1">World!$C$21</definedName>
+    <definedName name="renewable_water_resources" localSheetId="1">World!$C$26</definedName>
     <definedName name="time_afforestation" localSheetId="3">Catalonia!$C$9:$X$9</definedName>
     <definedName name="time_afforestation" localSheetId="2">Europe!$C$13:$X$13</definedName>
-    <definedName name="time_afforestation" localSheetId="1">World!#REF!</definedName>
+    <definedName name="time_afforestation" localSheetId="1">World!$C$18:$X$18</definedName>
     <definedName name="time_historic_population" localSheetId="3">Catalonia!$C$1:$X$1</definedName>
     <definedName name="time_historic_population" localSheetId="2">Europe!$C$1:$X$1</definedName>
     <definedName name="time_historic_population" localSheetId="1">World!$C$1:$X$1</definedName>
@@ -90,7 +90,7 @@
     <definedName name="urban_surface_2008" localSheetId="3">Catalonia!#REF!</definedName>
     <definedName name="urban_surface_2008" localSheetId="2">Europe!$C$10</definedName>
     <definedName name="urban_surface_2008" localSheetId="1">World!$C$10</definedName>
-    <definedName name="years_co2_luc" localSheetId="1">World!#REF!</definedName>
+    <definedName name="years_co2_luc" localSheetId="1">World!$C$15:$I$15</definedName>
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
@@ -820,12 +820,62 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">Iñigo:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Approximation: cte at 2010 level from 1990 to 2100.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Iñigo:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nilsson &amp; Schopfhauser (1995)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">IdB:  Data from CDIAC and World Resources Institute
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0">
+    <comment ref="A26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0">
+    <comment ref="A27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -874,7 +924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0">
+    <comment ref="A32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -899,7 +949,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0">
+    <comment ref="C32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -924,7 +974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0">
+    <comment ref="A33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -949,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0">
+    <comment ref="C33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1183,7 +1233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t>Jobs</t>
   </si>
@@ -1366,6 +1416,15 @@
   </si>
   <si>
     <t>TPED acceptable standard living</t>
+  </si>
+  <si>
+    <t>Other GHG emissions</t>
+  </si>
+  <si>
+    <t>Land use change emissions GtCO2</t>
+  </si>
+  <si>
+    <t>GtCO2</t>
   </si>
   <si>
     <t>Afforestation program</t>
@@ -1548,7 +1607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1704,12 +1763,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1823,6 +1893,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2679,10 +2752,10 @@
   <sheetPr>
     <tabColor rgb="FF595959"/>
   </sheetPr>
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -2990,139 +3063,368 @@
       <c r="B14" s="40"/>
       <c r="C14" s="24"/>
     </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" ref="D15" si="0">C15+5</f>
+        <v>2025</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" ref="E15" si="1">D15+5</f>
+        <v>2030</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15" si="2">E15+5</f>
+        <v>2035</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" ref="G15" si="3">F15+5</f>
+        <v>2040</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" ref="H15" si="4">G15+5</f>
+        <v>2045</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" ref="I15" si="5">H15+5</f>
+        <v>2050</v>
+      </c>
+    </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1.5</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="33">
+      <c r="B18" s="42"/>
+      <c r="C18" s="5">
+        <v>1980</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2020</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18:X18" si="6">D18+5</f>
+        <v>2025</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="6"/>
+        <v>2030</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="6"/>
+        <v>2035</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="6"/>
+        <v>2040</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="6"/>
+        <v>2045</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="6"/>
+        <v>2050</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="6"/>
+        <v>2055</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="6"/>
+        <v>2060</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="6"/>
+        <v>2065</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="6"/>
+        <v>2070</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="6"/>
+        <v>2075</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="6"/>
+        <v>2085</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" si="6"/>
+        <v>2090</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" si="6"/>
+        <v>2095</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="6"/>
+        <v>2100</v>
+      </c>
+      <c r="U18" s="5">
+        <f t="shared" si="6"/>
+        <v>2105</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" si="6"/>
+        <v>2110</v>
+      </c>
+      <c r="W18" s="5">
+        <f t="shared" si="6"/>
+        <v>2115</v>
+      </c>
+      <c r="X18" s="5">
+        <f t="shared" si="6"/>
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>138.27270413283301</v>
+      </c>
+      <c r="F19" s="5">
+        <v>299.56044274475403</v>
+      </c>
+      <c r="G19" s="5">
+        <v>452.93534236308199</v>
+      </c>
+      <c r="H19" s="5">
+        <v>597.87985625211195</v>
+      </c>
+      <c r="I19" s="5">
+        <v>733.87643769476597</v>
+      </c>
+      <c r="J19" s="5">
+        <v>860.40753996092803</v>
+      </c>
+      <c r="K19" s="5">
+        <v>976.95561632420902</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1083.0031200675301</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1178.0325044589099</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1261.5262227738301</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1332.9667282933401</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1391.83647428174</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>1437.6179140219499</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1469.79350078944</v>
+      </c>
+      <c r="S19" s="5">
+        <v>1487.8456878541001</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1491.25692849699</v>
+      </c>
+      <c r="U19" s="5">
+        <v>1479.5096759861301</v>
+      </c>
+      <c r="V19" s="5">
+        <v>1452.0863836025801</v>
+      </c>
+      <c r="W19" s="5">
+        <v>1408.46950461809</v>
+      </c>
+      <c r="X19" s="5">
+        <v>1348.14149231184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="33">
         <v>378.66</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="44">
+    <row r="23" spans="1:24">
+      <c r="A23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="44">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="5">
+    <row r="25" spans="1:24">
+      <c r="A25" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="5">
         <v>43659</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="5">
+    <row r="27" spans="1:24">
+      <c r="A27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="5">
         <v>7091</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="16"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="64" t="s">
+    <row r="28" spans="1:24">
+      <c r="A28" s="16"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="64"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6" t="s">
+      <c r="B29" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="45" t="s">
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="B30" s="59"/>
+      <c r="C30" s="65" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
+      <c r="D30" s="65"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C32" s="5">
         <v>750</v>
       </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C33" s="5">
         <v>50</v>
       </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="30">
-      <c r="A31" s="46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="41" t="s">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="36" spans="1:4" ht="30">
+      <c r="A36" s="46" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
+  <mergeCells count="4">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3392,7 +3694,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="5">
@@ -3484,10 +3786,10 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3558,24 +3860,24 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C16" s="54">
         <v>0</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C18" s="44">
         <v>8</v>
@@ -3583,17 +3885,17 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" s="55">
         <v>1505</v>
@@ -3601,10 +3903,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C22" s="55">
         <v>1130</v>
@@ -3612,17 +3914,17 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="59" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C28" s="55">
         <v>135</v>
@@ -3830,7 +4132,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="5">
@@ -3922,10 +4224,10 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -3996,10 +4298,10 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C13" s="44">
         <v>8</v>
@@ -4007,17 +4309,17 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C16" s="57">
         <v>2.7869999999999999</v>
@@ -4025,10 +4327,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C17" s="57">
         <f>C16*0.61</f>
